--- a/document/数据库/数据/t_user.xlsx
+++ b/document/数据库/数据/t_user.xlsx
@@ -981,7 +981,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>张歆</t>
+    <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -989,7 +989,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1030,17 +1030,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1377,2567 +1366,3249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C232"/>
+  <dimension ref="A1:D231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C2" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C9" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C11" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C12" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C13" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C14" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C15" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C16" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C17" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C18" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C19" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C20" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C21" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C22" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C23" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C24" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C25" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C26" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C27" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C28" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C29" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C30" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C31" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C32" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C33" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C34" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C35" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C36" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C37" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C38" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C39" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C40" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C41" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C42" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C43" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C44" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C45" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C46" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C47" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C48" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C49" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C50" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D50" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C51" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C52" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D52" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C53" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C54" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D54" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C55" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D55" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C56" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D56" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C57" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D57" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C58" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C59" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C60" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D60" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C61" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C62" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C63" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C64" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D64" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C65" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C66" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D66" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C67" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D67" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C68" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D68" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C69" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C70" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D70" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B71" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C71" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D71" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C72" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D72" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C73" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D73" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C74" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D74" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B75" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C75" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D75" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C76" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D76" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C77" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D77" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C78" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D78" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C79" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D79" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B80" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C80" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D80" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C81" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D81" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C82" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D82" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B83" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C83" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D83" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B84" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C84" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D84" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B85" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C85" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D85" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B86" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C86" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D86" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B87" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C87" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D87" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B88" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C88" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D88" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B89" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C89" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D89" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B90" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C90" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D90" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B91" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C91" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D91" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B92" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C92" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D92" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B93" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C93" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D93" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B94" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C94" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D94" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B95" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C95" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D95" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B96" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C96" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D96" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B97" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C97" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D97" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C98" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D98" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B99" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C99" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D99" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C100" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D100" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B101" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C101" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D101" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C102" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D102" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B103" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C103" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D103" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B104" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C104" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D104" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B105" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C105" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D105" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B106" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C106" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D106" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B107" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C107" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D107" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B108" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C108" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D108" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B109" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C109" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D109" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B110" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C110" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D110" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B111" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C111" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D111" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B112" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C112" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D112" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B113" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C113" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D113" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B114" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C114" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D114" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B115" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C115" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D115" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B116" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C116" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D116" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B117" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C117" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D117" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>117</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B118" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C118" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D118" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>118</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B119" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C119" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D119" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>119</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B120" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C120" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D120" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>120</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B121" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C121" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D121" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>121</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B122" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C122" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D122" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>122</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B123" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C123" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D123" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>123</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B124" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C124" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D124" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>124</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B125" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C125" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D125" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>125</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B126" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C126" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D126" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>126</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B127" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C127" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D127" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>127</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B128" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C128" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D128" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>128</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B129" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C129" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D129" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>129</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B130" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C130" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D130" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>130</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B131" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C131" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D131" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>131</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B132" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C132" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D132" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>132</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B133" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C133" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D133" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>133</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B134" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C134" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D134" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>134</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B135" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C135" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D135" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>135</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B136" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C136" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D136" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>136</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B137" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C137" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D137" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>137</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B138" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C138" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D138" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>138</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B139" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C139" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D139" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>139</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B140" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C140" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D140" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>140</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B141" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C141" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D141" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>141</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B142" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C142" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D142" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>142</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B143" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C143" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D143" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>143</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B144" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C144" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D144" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>144</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B145" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C145" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D145" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>145</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B146" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C146" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D146" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>146</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B147" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C147" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D147" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>147</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B148" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C148" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D148" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>148</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B149" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C149" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D149" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>149</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B150" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C150" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D150" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>150</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B151" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C151" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D151" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>151</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B152" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C152" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D152" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>152</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B153" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C153" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D153" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>153</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B154" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C154" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D154" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>154</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B155" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C155" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D155" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>155</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B156" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C156" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D156" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>156</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B157" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C157" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D157" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>157</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B158" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C158" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D158" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>158</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B159" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C159" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D159" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <v>159</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B160" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C160" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D160" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>160</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B161" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C161" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D161" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>161</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B162" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C162" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D162" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>162</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B163" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C163" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D163" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>163</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B164" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C164" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D164" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>164</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B165" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C165" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D165" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>165</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B166" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C166" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D166" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>166</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B167" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C167" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D167" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>167</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B168" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C168" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D168" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>168</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B169" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C169" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D169" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
+        <v>169</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B170" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C170" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D170" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <v>170</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B171" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C171" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D171" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
+        <v>171</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B172" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C172" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D172" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
+        <v>172</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B173" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C173" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D173" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
+        <v>173</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B174" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C174" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D174" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
+        <v>174</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B175" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C175" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D175" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2">
+        <v>175</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B176" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C176" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D176" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2">
+        <v>176</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B177" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C177" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D177" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2">
+        <v>177</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B178" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C178" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D178" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2">
+        <v>178</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B179" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C179" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D179" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="2">
+        <v>179</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B180" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C180" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D180" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
+        <v>180</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B181" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C181" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D181" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="2">
+        <v>181</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B182" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C182" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D182" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="2">
+        <v>182</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B183" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C183" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D183" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="2">
+        <v>183</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B184" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C184" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D184" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="2">
+        <v>184</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B185" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C185" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D185" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="2">
+        <v>185</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B186" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C186" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D186" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="2">
+        <v>186</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B187" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C187" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D187" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="2">
+        <v>187</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B188" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C188" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D188" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="2">
+        <v>188</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B189" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C189" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D189" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="2">
+        <v>189</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B190" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C190" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D190" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="2">
+        <v>190</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B191" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C191" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D191" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="2">
+        <v>191</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B192" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C192" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D192" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="2">
+        <v>192</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B193" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C193" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D193" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="2">
+        <v>193</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B194" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C194" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D194" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="2">
+        <v>194</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B195" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C195" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D195" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="2">
+        <v>195</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B196" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C196" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D196" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="2">
+        <v>196</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B197" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C197" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D197" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="2">
+        <v>197</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B198" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C198" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D198" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="2">
+        <v>198</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B199" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C199" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D199" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="2">
+        <v>199</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B200" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C200" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D200" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="2">
+        <v>200</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B201" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C201" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D201" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="2">
+        <v>201</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B202" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C202" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D202" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="2">
+        <v>202</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B203" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C203" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D203" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="2">
+        <v>203</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B204" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C204" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D204" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="2">
+        <v>204</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B205" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C205" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D205" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="2">
+        <v>205</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B206" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C206" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D206" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="2">
+        <v>206</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B207" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C207" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D207" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="2">
+        <v>207</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B208" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C208" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D208" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="2">
+        <v>208</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B209" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C209" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D209" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="2">
+        <v>209</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B210" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C210" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D210" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="2">
+        <v>210</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B211" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C211" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D211" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="2">
+        <v>211</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B212" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C212" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D212" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="2">
+        <v>212</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B213" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C213" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D213" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="2">
+        <v>213</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B214" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C214" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D214" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="2">
+        <v>214</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B215" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C215" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D215" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="2">
+        <v>215</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B216" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C216" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D216" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="2">
+        <v>216</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B217" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C217" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D217" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="2">
+        <v>217</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B218" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C218" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D218" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="2">
+        <v>218</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B219" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C219" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D219" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="2">
+        <v>219</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B220" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C220" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D220" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="2">
+        <v>220</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B221" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C221" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D221" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="2">
+        <v>221</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B222" s="2">
-        <v>1234567</v>
-      </c>
       <c r="C222" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="2" t="s">
+        <v>1234567</v>
+      </c>
+      <c r="D222" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="2">
+        <v>222</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B223" s="2">
+      <c r="C223" s="2">
         <v>7654321</v>
       </c>
-      <c r="C223" s="2">
+      <c r="D223" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="2" t="s">
+    <row r="224" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="2">
+        <v>223</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B224" s="2">
+      <c r="C224" s="2">
         <v>7654321</v>
       </c>
-      <c r="C224" s="2">
+      <c r="D224" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="2" t="s">
+    <row r="225" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="2">
+        <v>224</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B225" s="2">
+      <c r="C225" s="2">
         <v>7654321</v>
       </c>
-      <c r="C225" s="2">
+      <c r="D225" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="2">
+        <v>225</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C226" s="2">
+        <v>7654321</v>
+      </c>
+      <c r="D226" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="2" t="s">
+    <row r="227" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="2">
         <v>226</v>
       </c>
-      <c r="B226" s="2">
+      <c r="B227" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C227" s="2">
         <v>7654321</v>
       </c>
-      <c r="C226" s="2">
+      <c r="D227" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="2" t="s">
+    <row r="228" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="2">
         <v>227</v>
       </c>
-      <c r="B227" s="2">
+      <c r="B228" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C228" s="2">
         <v>7654321</v>
       </c>
-      <c r="C227" s="2">
+      <c r="D228" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="2" t="s">
+    <row r="229" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="2">
         <v>228</v>
       </c>
-      <c r="B228" s="2">
+      <c r="B229" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C229" s="2">
         <v>7654321</v>
       </c>
-      <c r="C228" s="2">
+      <c r="D229" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="2" t="s">
+    <row r="230" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="2">
         <v>229</v>
       </c>
-      <c r="B229" s="2">
+      <c r="B230" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C230" s="2">
         <v>7654321</v>
       </c>
-      <c r="C229" s="2">
+      <c r="D230" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="2" t="s">
+    <row r="231" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="2">
         <v>230</v>
       </c>
-      <c r="B230" s="2">
+      <c r="B231" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C231" s="2">
         <v>7654321</v>
       </c>
-      <c r="C230" s="2">
+      <c r="D231" s="2">
         <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B231" s="2">
-        <v>7654321</v>
-      </c>
-      <c r="C231" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B232" s="2">
-        <v>123456789</v>
-      </c>
-      <c r="C232" s="2">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/document/数据库/数据/t_user.xlsx
+++ b/document/数据库/数据/t_user.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>name</t>
   </si>
@@ -30,957 +30,6 @@
     <t>category</t>
   </si>
   <si>
-    <t>蔡建宇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹睿鹏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈晓磊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>成晋标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>崔静</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>段智伟</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>何婷婷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>荆高鹏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李博</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李旭辉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>林斯越</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔺青钰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘月</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘康</t>
-  </si>
-  <si>
-    <t>马云鹏</t>
-  </si>
-  <si>
-    <t>朴智康</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏宏帅</t>
-  </si>
-  <si>
-    <t>孙兆良</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>童学敏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王赫晨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王丽艳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王婷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>肖娜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张月</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱洪进</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李坚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>马涛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王子阳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>严祎明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈诗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>董磊</t>
-  </si>
-  <si>
-    <t>冯云</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高佳童</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>晋国盼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李娟</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘琳竹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冉宇辰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王达光</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王江</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王子祥</t>
-  </si>
-  <si>
-    <t>温培源</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴鑫安</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨亚峰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>易毅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>游景元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>于泽群</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>余博</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张妍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张圆园</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵子杰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>周扬森</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱慧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉斐尔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡伟健</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>安如峰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡萃萃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹茵茵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈琳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>董骁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>付裕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭林楠</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭强</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭臻</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄斌杰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪文东</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李宁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>林建辉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲悠扬</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王灏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴露霞</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>伍翀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>闫海林</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张奇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张亚菲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张岩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>周琦超</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱麟</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王帅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张亮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘树荣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈博洋</t>
-  </si>
-  <si>
-    <t>陈令奎</t>
-  </si>
-  <si>
-    <t>陈相令仪</t>
-  </si>
-  <si>
-    <t>韩雪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>郝刚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄龙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金翌飞</t>
-  </si>
-  <si>
-    <t>罗澄曦</t>
-  </si>
-  <si>
-    <t>钱强</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>邱进汉</t>
-  </si>
-  <si>
-    <t>王川</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王欢达</t>
-  </si>
-  <si>
-    <t>魏龙星</t>
-  </si>
-  <si>
-    <t>吴桂津</t>
-  </si>
-  <si>
-    <t>谢国贞</t>
-  </si>
-  <si>
-    <t>张珊珊</t>
-  </si>
-  <si>
-    <t>金诗雨</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>窦文思</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>冯冲</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>冯云</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>高浩铭</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>菅海亮</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>李超</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>李青霞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>马廷平</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>秦妤嘉</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>武文曦</t>
-    </r>
-  </si>
-  <si>
-    <t>杨阳</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>祝威</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>邹远平</t>
-    </r>
-  </si>
-  <si>
-    <t>马思颖</t>
-  </si>
-  <si>
-    <t>陈锋</t>
-  </si>
-  <si>
-    <t>陈惟楚</t>
-  </si>
-  <si>
-    <t>陈妍</t>
-  </si>
-  <si>
-    <t>陈瑜鹏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>董建</t>
-  </si>
-  <si>
-    <t>郭辰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李开林</t>
-  </si>
-  <si>
-    <t>李玺</t>
-  </si>
-  <si>
-    <t>梁寒冰</t>
-  </si>
-  <si>
-    <t>刘宸宇</t>
-  </si>
-  <si>
-    <t>刘鹏鹏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘艳杰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗欧</t>
-  </si>
-  <si>
-    <t>马宇坤</t>
-  </si>
-  <si>
-    <t>穆岩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>潘京臣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宋飘</t>
-  </si>
-  <si>
-    <t>王洋</t>
-  </si>
-  <si>
-    <t>杨洁</t>
-  </si>
-  <si>
-    <t>姚欣</t>
-  </si>
-  <si>
-    <t>尹航</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张岱</t>
-  </si>
-  <si>
-    <t>张昊</t>
-  </si>
-  <si>
-    <t>张欢</t>
-  </si>
-  <si>
-    <t>张井艳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>任宏宇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>周银</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高琦</t>
-  </si>
-  <si>
-    <t>李栋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>林爱玉</t>
-  </si>
-  <si>
-    <t>刘然</t>
-  </si>
-  <si>
-    <t>王寒</t>
-  </si>
-  <si>
-    <t>张晓庆</t>
-  </si>
-  <si>
-    <t>程晨</t>
-  </si>
-  <si>
-    <t>范志安</t>
-  </si>
-  <si>
-    <t>韩佳奕</t>
-  </si>
-  <si>
-    <t>景博</t>
-  </si>
-  <si>
-    <t>石欣</t>
-  </si>
-  <si>
-    <t>王倩倩</t>
-  </si>
-  <si>
-    <t>王赢</t>
-  </si>
-  <si>
-    <t>邢闺玲</t>
-  </si>
-  <si>
-    <t>徐炳松</t>
-  </si>
-  <si>
-    <t>许志业</t>
-  </si>
-  <si>
-    <t>易文俊</t>
-  </si>
-  <si>
-    <t>张璇</t>
-  </si>
-  <si>
-    <t>周欣</t>
-  </si>
-  <si>
-    <t>邹家莘</t>
-  </si>
-  <si>
-    <t>冷冰炘</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲洋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>薛秀梅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈涛</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>火欣</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>李朴之</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>李霞</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>任志强</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>时朝岩</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>王春志</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>张洪喆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张永梅</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵彤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟文锋</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘存良</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘雯雯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>齐瑞峰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>全志明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宋聚坡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李建胜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈立颖</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈亮</t>
-  </si>
-  <si>
-    <t>陈鹭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈淼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>董通喜</t>
-  </si>
-  <si>
-    <t>方霁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭庆</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>何韡</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡新珍</t>
-  </si>
-  <si>
-    <t>李丹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李绍辉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁玉娟</t>
-  </si>
-  <si>
-    <t>刘光宗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>马雷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>山辉</t>
-  </si>
-  <si>
-    <t>束罡</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>宋乐</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>汪江波</t>
-  </si>
-  <si>
-    <t>王文彬</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴宁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>项赟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑谦</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟磊</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>王喆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>迟爽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高建敏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>石琳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴晓光</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>西茜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>闫永航</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦洋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张振岭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐海滨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱燕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>周培军</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙渊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>邓覃思</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄建楼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金元海</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>任改霞</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏戈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王磊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>薛静锋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>马锐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵小林</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王勇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭图</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡晶晶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单纯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘振岩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张继</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -989,7 +38,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1011,26 +60,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1040,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1074,16 +103,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1368,18 +415,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="G226" sqref="G226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>232</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1395,8 +443,8 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="B2" s="3">
+        <v>2220150544</v>
       </c>
       <c r="C2" s="2">
         <v>1234567</v>
@@ -1409,8 +457,8 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
+      <c r="B3" s="3">
+        <v>2220150545</v>
       </c>
       <c r="C3" s="2">
         <v>1234567</v>
@@ -1423,8 +471,8 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
+      <c r="B4" s="3">
+        <v>2220150547</v>
       </c>
       <c r="C4" s="2">
         <v>1234567</v>
@@ -1437,8 +485,8 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
+      <c r="B5" s="3">
+        <v>2220150548</v>
       </c>
       <c r="C5" s="2">
         <v>1234567</v>
@@ -1451,8 +499,8 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
+      <c r="B6" s="3">
+        <v>2220150549</v>
       </c>
       <c r="C6" s="2">
         <v>1234567</v>
@@ -1465,8 +513,8 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
+      <c r="B7" s="3">
+        <v>2220150553</v>
       </c>
       <c r="C7" s="2">
         <v>1234567</v>
@@ -1479,8 +527,8 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
+      <c r="B8" s="3">
+        <v>2220150557</v>
       </c>
       <c r="C8" s="2">
         <v>1234567</v>
@@ -1493,8 +541,8 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
+      <c r="B9" s="3">
+        <v>2220150562</v>
       </c>
       <c r="C9" s="2">
         <v>1234567</v>
@@ -1507,8 +555,8 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
+      <c r="B10" s="3">
+        <v>2220150564</v>
       </c>
       <c r="C10" s="2">
         <v>1234567</v>
@@ -1521,8 +569,8 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
+      <c r="B11" s="3">
+        <v>2220150569</v>
       </c>
       <c r="C11" s="2">
         <v>1234567</v>
@@ -1535,8 +583,8 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
+      <c r="B12" s="3">
+        <v>2220150573</v>
       </c>
       <c r="C12" s="2">
         <v>1234567</v>
@@ -1549,8 +597,8 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
+      <c r="B13" s="3">
+        <v>2220150574</v>
       </c>
       <c r="C13" s="2">
         <v>1234567</v>
@@ -1563,8 +611,8 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
+      <c r="B14" s="3">
+        <v>2220150579</v>
       </c>
       <c r="C14" s="2">
         <v>1234567</v>
@@ -1577,8 +625,8 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>16</v>
+      <c r="B15" s="3">
+        <v>2220150577</v>
       </c>
       <c r="C15" s="2">
         <v>1234567</v>
@@ -1591,8 +639,8 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
+      <c r="B16" s="3">
+        <v>2220150581</v>
       </c>
       <c r="C16" s="2">
         <v>1234567</v>
@@ -1605,8 +653,8 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
+      <c r="B17" s="3">
+        <v>2220150584</v>
       </c>
       <c r="C17" s="2">
         <v>1234567</v>
@@ -1619,8 +667,8 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>19</v>
+      <c r="B18" s="3">
+        <v>2220150588</v>
       </c>
       <c r="C18" s="2">
         <v>1234567</v>
@@ -1633,8 +681,8 @@
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>20</v>
+      <c r="B19" s="3">
+        <v>2220150592</v>
       </c>
       <c r="C19" s="2">
         <v>1234567</v>
@@ -1647,8 +695,8 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>21</v>
+      <c r="B20" s="3">
+        <v>2220150596</v>
       </c>
       <c r="C20" s="2">
         <v>1234567</v>
@@ -1661,8 +709,8 @@
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>22</v>
+      <c r="B21" s="3">
+        <v>2220150597</v>
       </c>
       <c r="C21" s="2">
         <v>1234567</v>
@@ -1675,8 +723,8 @@
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>23</v>
+      <c r="B22" s="3">
+        <v>2220150598</v>
       </c>
       <c r="C22" s="2">
         <v>1234567</v>
@@ -1689,8 +737,8 @@
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>24</v>
+      <c r="B23" s="3">
+        <v>2220150606</v>
       </c>
       <c r="C23" s="2">
         <v>1234567</v>
@@ -1703,8 +751,8 @@
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>25</v>
+      <c r="B24" s="3">
+        <v>2220150617</v>
       </c>
       <c r="C24" s="2">
         <v>1234567</v>
@@ -1717,8 +765,8 @@
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>26</v>
+      <c r="B25" s="3">
+        <v>2220150638</v>
       </c>
       <c r="C25" s="2">
         <v>1234567</v>
@@ -1731,8 +779,8 @@
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>27</v>
+      <c r="B26" s="3">
+        <v>2220150641</v>
       </c>
       <c r="C26" s="2">
         <v>1234567</v>
@@ -1745,8 +793,8 @@
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>28</v>
+      <c r="B27" s="3">
+        <v>2120141107</v>
       </c>
       <c r="C27" s="2">
         <v>1234567</v>
@@ -1759,8 +807,8 @@
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>29</v>
+      <c r="B28" s="3">
+        <v>2120141108</v>
       </c>
       <c r="C28" s="2">
         <v>1234567</v>
@@ -1773,8 +821,8 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>30</v>
+      <c r="B29" s="3">
+        <v>2120141109</v>
       </c>
       <c r="C29" s="2">
         <v>1234567</v>
@@ -1787,8 +835,8 @@
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>31</v>
+      <c r="B30" s="3">
+        <v>2120141110</v>
       </c>
       <c r="C30" s="2">
         <v>1234567</v>
@@ -1801,8 +849,8 @@
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>32</v>
+      <c r="B31" s="3">
+        <v>2220140539</v>
       </c>
       <c r="C31" s="2">
         <v>1234567</v>
@@ -1815,8 +863,8 @@
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>33</v>
+      <c r="B32" s="3">
+        <v>2220140546</v>
       </c>
       <c r="C32" s="2">
         <v>1234567</v>
@@ -1829,8 +877,8 @@
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>34</v>
+      <c r="B33" s="3">
+        <v>2220140549</v>
       </c>
       <c r="C33" s="2">
         <v>1234567</v>
@@ -1843,8 +891,8 @@
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>35</v>
+      <c r="B34" s="3">
+        <v>2220140551</v>
       </c>
       <c r="C34" s="2">
         <v>1234567</v>
@@ -1857,8 +905,8 @@
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>36</v>
+      <c r="B35" s="3">
+        <v>2220140558</v>
       </c>
       <c r="C35" s="2">
         <v>1234567</v>
@@ -1871,8 +919,8 @@
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>37</v>
+      <c r="B36" s="3">
+        <v>2220140560</v>
       </c>
       <c r="C36" s="2">
         <v>1234567</v>
@@ -1885,8 +933,8 @@
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>38</v>
+      <c r="B37" s="3">
+        <v>2220140568</v>
       </c>
       <c r="C37" s="2">
         <v>1234567</v>
@@ -1899,8 +947,8 @@
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>39</v>
+      <c r="B38" s="3">
+        <v>2220140576</v>
       </c>
       <c r="C38" s="2">
         <v>1234567</v>
@@ -1913,8 +961,8 @@
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>40</v>
+      <c r="B39" s="3">
+        <v>2220140582</v>
       </c>
       <c r="C39" s="2">
         <v>1234567</v>
@@ -1927,8 +975,8 @@
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>41</v>
+      <c r="B40" s="3">
+        <v>2220140583</v>
       </c>
       <c r="C40" s="2">
         <v>1234567</v>
@@ -1941,8 +989,8 @@
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>42</v>
+      <c r="B41" s="3">
+        <v>2220140589</v>
       </c>
       <c r="C41" s="2">
         <v>1234567</v>
@@ -1955,8 +1003,8 @@
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>43</v>
+      <c r="B42" s="3">
+        <v>2220140590</v>
       </c>
       <c r="C42" s="2">
         <v>1234567</v>
@@ -1969,8 +1017,8 @@
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>44</v>
+      <c r="B43" s="3">
+        <v>2220140594</v>
       </c>
       <c r="C43" s="2">
         <v>1234567</v>
@@ -1983,8 +1031,8 @@
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>45</v>
+      <c r="B44" s="3">
+        <v>2220140603</v>
       </c>
       <c r="C44" s="2">
         <v>1234567</v>
@@ -1997,8 +1045,8 @@
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>46</v>
+      <c r="B45" s="3">
+        <v>2220140605</v>
       </c>
       <c r="C45" s="2">
         <v>1234567</v>
@@ -2011,8 +1059,8 @@
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>47</v>
+      <c r="B46" s="3">
+        <v>2220140606</v>
       </c>
       <c r="C46" s="2">
         <v>1234567</v>
@@ -2025,8 +1073,8 @@
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>48</v>
+      <c r="B47" s="3">
+        <v>2220140607</v>
       </c>
       <c r="C47" s="2">
         <v>1234567</v>
@@ -2039,8 +1087,8 @@
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>49</v>
+      <c r="B48" s="3">
+        <v>2220140608</v>
       </c>
       <c r="C48" s="2">
         <v>1234567</v>
@@ -2053,8 +1101,8 @@
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>50</v>
+      <c r="B49" s="3">
+        <v>2220140610</v>
       </c>
       <c r="C49" s="2">
         <v>1234567</v>
@@ -2067,8 +1115,8 @@
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>51</v>
+      <c r="B50" s="3">
+        <v>2220140611</v>
       </c>
       <c r="C50" s="2">
         <v>1234567</v>
@@ -2081,8 +1129,8 @@
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>52</v>
+      <c r="B51" s="3">
+        <v>2220140614</v>
       </c>
       <c r="C51" s="2">
         <v>1234567</v>
@@ -2095,8 +1143,8 @@
       <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>53</v>
+      <c r="B52" s="3">
+        <v>2220140620</v>
       </c>
       <c r="C52" s="2">
         <v>1234567</v>
@@ -2109,8 +1157,8 @@
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>54</v>
+      <c r="B53" s="3">
+        <v>2220140622</v>
       </c>
       <c r="C53" s="2">
         <v>1234567</v>
@@ -2123,8 +1171,8 @@
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>55</v>
+      <c r="B54" s="3">
+        <v>2820140029</v>
       </c>
       <c r="C54" s="2">
         <v>1234567</v>
@@ -2137,8 +1185,8 @@
       <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>56</v>
+      <c r="B55" s="3">
+        <v>2120131123</v>
       </c>
       <c r="C55" s="2">
         <v>1234567</v>
@@ -2151,8 +1199,8 @@
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>57</v>
+      <c r="B56" s="3">
+        <v>2220130470</v>
       </c>
       <c r="C56" s="2">
         <v>1234567</v>
@@ -2165,8 +1213,8 @@
       <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>58</v>
+      <c r="B57" s="3">
+        <v>2220130473</v>
       </c>
       <c r="C57" s="2">
         <v>1234567</v>
@@ -2179,8 +1227,8 @@
       <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>59</v>
+      <c r="B58" s="3">
+        <v>2220130476</v>
       </c>
       <c r="C58" s="2">
         <v>1234567</v>
@@ -2193,8 +1241,8 @@
       <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>60</v>
+      <c r="B59" s="3">
+        <v>2220130481</v>
       </c>
       <c r="C59" s="2">
         <v>1234567</v>
@@ -2207,8 +1255,8 @@
       <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>61</v>
+      <c r="B60" s="3">
+        <v>2220130489</v>
       </c>
       <c r="C60" s="2">
         <v>1234567</v>
@@ -2221,8 +1269,8 @@
       <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>62</v>
+      <c r="B61" s="3">
+        <v>2220130493</v>
       </c>
       <c r="C61" s="2">
         <v>1234567</v>
@@ -2235,8 +1283,8 @@
       <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>63</v>
+      <c r="B62" s="3">
+        <v>2220130498</v>
       </c>
       <c r="C62" s="2">
         <v>1234567</v>
@@ -2249,8 +1297,8 @@
       <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>64</v>
+      <c r="B63" s="3">
+        <v>2220130499</v>
       </c>
       <c r="C63" s="2">
         <v>1234567</v>
@@ -2263,8 +1311,8 @@
       <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>65</v>
+      <c r="B64" s="3">
+        <v>2220130501</v>
       </c>
       <c r="C64" s="2">
         <v>1234567</v>
@@ -2277,8 +1325,8 @@
       <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>66</v>
+      <c r="B65" s="3">
+        <v>2220130502</v>
       </c>
       <c r="C65" s="2">
         <v>1234567</v>
@@ -2291,8 +1339,8 @@
       <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>67</v>
+      <c r="B66" s="3">
+        <v>2220130506</v>
       </c>
       <c r="C66" s="2">
         <v>1234567</v>
@@ -2305,8 +1353,8 @@
       <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>68</v>
+      <c r="B67" s="3">
+        <v>2220130511</v>
       </c>
       <c r="C67" s="2">
         <v>1234567</v>
@@ -2319,8 +1367,8 @@
       <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>69</v>
+      <c r="B68" s="3">
+        <v>2220130515</v>
       </c>
       <c r="C68" s="2">
         <v>1234567</v>
@@ -2333,8 +1381,8 @@
       <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>70</v>
+      <c r="B69" s="3">
+        <v>2220130528</v>
       </c>
       <c r="C69" s="2">
         <v>1234567</v>
@@ -2347,8 +1395,8 @@
       <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>71</v>
+      <c r="B70" s="3">
+        <v>2220130540</v>
       </c>
       <c r="C70" s="2">
         <v>1234567</v>
@@ -2361,8 +1409,8 @@
       <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>72</v>
+      <c r="B71" s="3">
+        <v>2220130547</v>
       </c>
       <c r="C71" s="2">
         <v>1234567</v>
@@ -2375,8 +1423,8 @@
       <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>73</v>
+      <c r="B72" s="3">
+        <v>2220130549</v>
       </c>
       <c r="C72" s="2">
         <v>1234567</v>
@@ -2389,8 +1437,8 @@
       <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>74</v>
+      <c r="B73" s="3">
+        <v>2220130553</v>
       </c>
       <c r="C73" s="2">
         <v>1234567</v>
@@ -2403,8 +1451,8 @@
       <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>75</v>
+      <c r="B74" s="3">
+        <v>2220130563</v>
       </c>
       <c r="C74" s="2">
         <v>1234567</v>
@@ -2417,8 +1465,8 @@
       <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>76</v>
+      <c r="B75" s="3">
+        <v>2220130564</v>
       </c>
       <c r="C75" s="2">
         <v>1234567</v>
@@ -2431,8 +1479,8 @@
       <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>77</v>
+      <c r="B76" s="3">
+        <v>2220130565</v>
       </c>
       <c r="C76" s="2">
         <v>1234567</v>
@@ -2445,8 +1493,8 @@
       <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>78</v>
+      <c r="B77" s="3">
+        <v>2220130572</v>
       </c>
       <c r="C77" s="2">
         <v>1234567</v>
@@ -2459,8 +1507,8 @@
       <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>79</v>
+      <c r="B78" s="3">
+        <v>2220130573</v>
       </c>
       <c r="C78" s="2">
         <v>1234567</v>
@@ -2473,8 +1521,8 @@
       <c r="A79" s="2">
         <v>78</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>80</v>
+      <c r="B79" s="3">
+        <v>2120121147</v>
       </c>
       <c r="C79" s="2">
         <v>1234567</v>
@@ -2487,8 +1535,8 @@
       <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>81</v>
+      <c r="B80" s="3">
+        <v>2120121170</v>
       </c>
       <c r="C80" s="2">
         <v>1234567</v>
@@ -2501,8 +1549,8 @@
       <c r="A81" s="2">
         <v>80</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>82</v>
+      <c r="B81" s="3">
+        <v>2120121200</v>
       </c>
       <c r="C81" s="2">
         <v>1234567</v>
@@ -2515,8 +1563,8 @@
       <c r="A82" s="2">
         <v>81</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>83</v>
+      <c r="B82" s="3">
+        <v>2220120361</v>
       </c>
       <c r="C82" s="2">
         <v>1234567</v>
@@ -2529,8 +1577,8 @@
       <c r="A83" s="2">
         <v>82</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>84</v>
+      <c r="B83" s="3">
+        <v>2220120363</v>
       </c>
       <c r="C83" s="2">
         <v>1234567</v>
@@ -2539,12 +1587,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>83</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>85</v>
+      <c r="B84" s="3">
+        <v>2220120365</v>
       </c>
       <c r="C84" s="2">
         <v>1234567</v>
@@ -2557,8 +1605,8 @@
       <c r="A85" s="2">
         <v>84</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>86</v>
+      <c r="B85" s="3">
+        <v>2220120372</v>
       </c>
       <c r="C85" s="2">
         <v>1234567</v>
@@ -2571,8 +1619,8 @@
       <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>87</v>
+      <c r="B86" s="3">
+        <v>2220120374</v>
       </c>
       <c r="C86" s="2">
         <v>1234567</v>
@@ -2585,8 +1633,8 @@
       <c r="A87" s="2">
         <v>86</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>88</v>
+      <c r="B87" s="3">
+        <v>2220120378</v>
       </c>
       <c r="C87" s="2">
         <v>1234567</v>
@@ -2599,8 +1647,8 @@
       <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>89</v>
+      <c r="B88" s="3">
+        <v>2220120382</v>
       </c>
       <c r="C88" s="2">
         <v>1234567</v>
@@ -2613,8 +1661,8 @@
       <c r="A89" s="2">
         <v>88</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>90</v>
+      <c r="B89" s="3">
+        <v>2220120394</v>
       </c>
       <c r="C89" s="2">
         <v>1234567</v>
@@ -2627,8 +1675,8 @@
       <c r="A90" s="2">
         <v>89</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>91</v>
+      <c r="B90" s="3">
+        <v>2220120395</v>
       </c>
       <c r="C90" s="2">
         <v>1234567</v>
@@ -2641,8 +1689,8 @@
       <c r="A91" s="2">
         <v>90</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>92</v>
+      <c r="B91" s="3">
+        <v>2220120397</v>
       </c>
       <c r="C91" s="2">
         <v>1234567</v>
@@ -2655,8 +1703,8 @@
       <c r="A92" s="2">
         <v>91</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>93</v>
+      <c r="B92" s="3">
+        <v>2220120402</v>
       </c>
       <c r="C92" s="2">
         <v>1234567</v>
@@ -2669,8 +1717,8 @@
       <c r="A93" s="2">
         <v>92</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>94</v>
+      <c r="B93" s="3">
+        <v>2220120403</v>
       </c>
       <c r="C93" s="2">
         <v>1234567</v>
@@ -2683,8 +1731,8 @@
       <c r="A94" s="2">
         <v>93</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>95</v>
+      <c r="B94" s="3">
+        <v>2220120409</v>
       </c>
       <c r="C94" s="2">
         <v>1234567</v>
@@ -2697,8 +1745,8 @@
       <c r="A95" s="2">
         <v>94</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>96</v>
+      <c r="B95" s="3">
+        <v>2220120410</v>
       </c>
       <c r="C95" s="2">
         <v>1234567</v>
@@ -2711,8 +1759,8 @@
       <c r="A96" s="2">
         <v>95</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>97</v>
+      <c r="B96" s="3">
+        <v>2220120413</v>
       </c>
       <c r="C96" s="2">
         <v>1234567</v>
@@ -2725,8 +1773,8 @@
       <c r="A97" s="2">
         <v>96</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>98</v>
+      <c r="B97" s="3">
+        <v>2220120426</v>
       </c>
       <c r="C97" s="2">
         <v>1234567</v>
@@ -2739,8 +1787,8 @@
       <c r="A98" s="2">
         <v>97</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>99</v>
+      <c r="B98" s="3">
+        <v>2220110311</v>
       </c>
       <c r="C98" s="2">
         <v>1234567</v>
@@ -2753,8 +1801,8 @@
       <c r="A99" s="2">
         <v>98</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>100</v>
+      <c r="B99" s="3">
+        <v>2220110291</v>
       </c>
       <c r="C99" s="2">
         <v>1234567</v>
@@ -2767,8 +1815,8 @@
       <c r="A100" s="2">
         <v>99</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>101</v>
+      <c r="B100" s="3">
+        <v>2220110295</v>
       </c>
       <c r="C100" s="2">
         <v>1234567</v>
@@ -2781,8 +1829,8 @@
       <c r="A101" s="2">
         <v>100</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>102</v>
+      <c r="B101" s="3">
+        <v>2220110297</v>
       </c>
       <c r="C101" s="2">
         <v>1234567</v>
@@ -2795,8 +1843,8 @@
       <c r="A102" s="2">
         <v>101</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>103</v>
+      <c r="B102" s="3">
+        <v>2220110298</v>
       </c>
       <c r="C102" s="2">
         <v>1234567</v>
@@ -2809,8 +1857,8 @@
       <c r="A103" s="2">
         <v>102</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>104</v>
+      <c r="B103" s="3">
+        <v>2220110309</v>
       </c>
       <c r="C103" s="2">
         <v>1234567</v>
@@ -2823,8 +1871,8 @@
       <c r="A104" s="2">
         <v>103</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>105</v>
+      <c r="B104" s="3">
+        <v>2220110315</v>
       </c>
       <c r="C104" s="2">
         <v>1234567</v>
@@ -2837,8 +1885,8 @@
       <c r="A105" s="2">
         <v>104</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>105</v>
+      <c r="B105" s="3">
+        <v>2220110316</v>
       </c>
       <c r="C105" s="2">
         <v>1234567</v>
@@ -2851,8 +1899,8 @@
       <c r="A106" s="2">
         <v>105</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>106</v>
+      <c r="B106" s="3">
+        <v>2220110320</v>
       </c>
       <c r="C106" s="2">
         <v>1234567</v>
@@ -2865,8 +1913,8 @@
       <c r="A107" s="2">
         <v>106</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>107</v>
+      <c r="B107" s="3">
+        <v>2220110327</v>
       </c>
       <c r="C107" s="2">
         <v>1234567</v>
@@ -2879,8 +1927,8 @@
       <c r="A108" s="2">
         <v>107</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>108</v>
+      <c r="B108" s="3">
+        <v>2220110331</v>
       </c>
       <c r="C108" s="2">
         <v>1234567</v>
@@ -2893,8 +1941,8 @@
       <c r="A109" s="2">
         <v>108</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>109</v>
+      <c r="B109" s="3">
+        <v>2220110345</v>
       </c>
       <c r="C109" s="2">
         <v>1234567</v>
@@ -2907,8 +1955,8 @@
       <c r="A110" s="2">
         <v>109</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>110</v>
+      <c r="B110" s="3">
+        <v>2220110353</v>
       </c>
       <c r="C110" s="2">
         <v>1234567</v>
@@ -2921,8 +1969,8 @@
       <c r="A111" s="2">
         <v>110</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>111</v>
+      <c r="B111" s="3">
+        <v>2220110368</v>
       </c>
       <c r="C111" s="2">
         <v>1234567</v>
@@ -2935,8 +1983,8 @@
       <c r="A112" s="2">
         <v>111</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>112</v>
+      <c r="B112" s="3">
+        <v>2220110369</v>
       </c>
       <c r="C112" s="2">
         <v>1234567</v>
@@ -2949,8 +1997,8 @@
       <c r="A113" s="2">
         <v>112</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>113</v>
+      <c r="B113" s="3">
+        <v>2220100230</v>
       </c>
       <c r="C113" s="2">
         <v>1234567</v>
@@ -2963,8 +2011,8 @@
       <c r="A114" s="2">
         <v>113</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>114</v>
+      <c r="B114" s="3">
+        <v>2220100181</v>
       </c>
       <c r="C114" s="2">
         <v>1234567</v>
@@ -2977,8 +2025,8 @@
       <c r="A115" s="2">
         <v>114</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>115</v>
+      <c r="B115" s="3">
+        <v>2220100184</v>
       </c>
       <c r="C115" s="2">
         <v>1234567</v>
@@ -2991,8 +2039,8 @@
       <c r="A116" s="2">
         <v>115</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>116</v>
+      <c r="B116" s="3">
+        <v>2220100186</v>
       </c>
       <c r="C116" s="2">
         <v>1234567</v>
@@ -3005,8 +2053,8 @@
       <c r="A117" s="2">
         <v>116</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>117</v>
+      <c r="B117" s="3">
+        <v>2220100187</v>
       </c>
       <c r="C117" s="2">
         <v>1234567</v>
@@ -3019,8 +2067,8 @@
       <c r="A118" s="2">
         <v>117</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>118</v>
+      <c r="B118" s="3">
+        <v>2220100190</v>
       </c>
       <c r="C118" s="2">
         <v>1234567</v>
@@ -3033,8 +2081,8 @@
       <c r="A119" s="2">
         <v>118</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>119</v>
+      <c r="B119" s="3">
+        <v>2220100198</v>
       </c>
       <c r="C119" s="2">
         <v>1234567</v>
@@ -3047,8 +2095,8 @@
       <c r="A120" s="2">
         <v>119</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>120</v>
+      <c r="B120" s="3">
+        <v>2220100213</v>
       </c>
       <c r="C120" s="2">
         <v>1234567</v>
@@ -3061,8 +2109,8 @@
       <c r="A121" s="2">
         <v>120</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>121</v>
+      <c r="B121" s="3">
+        <v>2220100215</v>
       </c>
       <c r="C121" s="2">
         <v>1234567</v>
@@ -3075,8 +2123,8 @@
       <c r="A122" s="2">
         <v>121</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>122</v>
+      <c r="B122" s="3">
+        <v>2220100220</v>
       </c>
       <c r="C122" s="2">
         <v>1234567</v>
@@ -3089,8 +2137,8 @@
       <c r="A123" s="2">
         <v>122</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>123</v>
+      <c r="B123" s="3">
+        <v>2220100222</v>
       </c>
       <c r="C123" s="2">
         <v>1234567</v>
@@ -3103,8 +2151,8 @@
       <c r="A124" s="2">
         <v>123</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>124</v>
+      <c r="B124" s="3">
+        <v>2220100225</v>
       </c>
       <c r="C124" s="2">
         <v>1234567</v>
@@ -3117,8 +2165,8 @@
       <c r="A125" s="2">
         <v>124</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>125</v>
+      <c r="B125" s="3">
+        <v>2220100227</v>
       </c>
       <c r="C125" s="2">
         <v>1234567</v>
@@ -3131,8 +2179,8 @@
       <c r="A126" s="2">
         <v>125</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>126</v>
+      <c r="B126" s="3">
+        <v>2220100229</v>
       </c>
       <c r="C126" s="2">
         <v>1234567</v>
@@ -3145,8 +2193,8 @@
       <c r="A127" s="2">
         <v>126</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>127</v>
+      <c r="B127" s="3">
+        <v>2220100232</v>
       </c>
       <c r="C127" s="2">
         <v>1234567</v>
@@ -3159,8 +2207,8 @@
       <c r="A128" s="2">
         <v>127</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>128</v>
+      <c r="B128" s="3">
+        <v>2220100234</v>
       </c>
       <c r="C128" s="2">
         <v>1234567</v>
@@ -3173,8 +2221,8 @@
       <c r="A129" s="2">
         <v>128</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>129</v>
+      <c r="B129" s="3">
+        <v>2220100236</v>
       </c>
       <c r="C129" s="2">
         <v>1234567</v>
@@ -3187,8 +2235,8 @@
       <c r="A130" s="2">
         <v>129</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>130</v>
+      <c r="B130" s="3">
+        <v>2220100244</v>
       </c>
       <c r="C130" s="2">
         <v>1234567</v>
@@ -3201,8 +2249,8 @@
       <c r="A131" s="2">
         <v>130</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>131</v>
+      <c r="B131" s="3">
+        <v>2220100254</v>
       </c>
       <c r="C131" s="2">
         <v>1234567</v>
@@ -3215,8 +2263,8 @@
       <c r="A132" s="2">
         <v>131</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>132</v>
+      <c r="B132" s="3">
+        <v>2220100261</v>
       </c>
       <c r="C132" s="2">
         <v>1234567</v>
@@ -3229,8 +2277,8 @@
       <c r="A133" s="2">
         <v>132</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>133</v>
+      <c r="B133" s="3">
+        <v>2220100266</v>
       </c>
       <c r="C133" s="2">
         <v>1234567</v>
@@ -3243,8 +2291,8 @@
       <c r="A134" s="2">
         <v>133</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>134</v>
+      <c r="B134" s="3">
+        <v>2220100267</v>
       </c>
       <c r="C134" s="2">
         <v>1234567</v>
@@ -3257,8 +2305,8 @@
       <c r="A135" s="2">
         <v>134</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>135</v>
+      <c r="B135" s="3">
+        <v>2220100272</v>
       </c>
       <c r="C135" s="2">
         <v>1234567</v>
@@ -3271,8 +2319,8 @@
       <c r="A136" s="2">
         <v>135</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>136</v>
+      <c r="B136" s="3">
+        <v>2220100274</v>
       </c>
       <c r="C136" s="2">
         <v>1234567</v>
@@ -3285,8 +2333,8 @@
       <c r="A137" s="2">
         <v>136</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>137</v>
+      <c r="B137" s="3">
+        <v>2220100275</v>
       </c>
       <c r="C137" s="2">
         <v>1234567</v>
@@ -3299,8 +2347,8 @@
       <c r="A138" s="2">
         <v>137</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>138</v>
+      <c r="B138" s="3">
+        <v>2220100276</v>
       </c>
       <c r="C138" s="2">
         <v>1234567</v>
@@ -3313,8 +2361,8 @@
       <c r="A139" s="2">
         <v>138</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>139</v>
+      <c r="B139" s="3">
+        <v>20907080</v>
       </c>
       <c r="C139" s="2">
         <v>1234567</v>
@@ -3327,8 +2375,8 @@
       <c r="A140" s="2">
         <v>139</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>140</v>
+      <c r="B140" s="3">
+        <v>20907150</v>
       </c>
       <c r="C140" s="2">
         <v>1234567</v>
@@ -3341,8 +2389,8 @@
       <c r="A141" s="2">
         <v>140</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>141</v>
+      <c r="B141" s="3">
+        <v>20908007</v>
       </c>
       <c r="C141" s="2">
         <v>1234567</v>
@@ -3355,8 +2403,8 @@
       <c r="A142" s="2">
         <v>141</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>142</v>
+      <c r="B142" s="3">
+        <v>20908011</v>
       </c>
       <c r="C142" s="2">
         <v>1234567</v>
@@ -3369,8 +2417,8 @@
       <c r="A143" s="2">
         <v>142</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>143</v>
+      <c r="B143" s="3">
+        <v>20908016</v>
       </c>
       <c r="C143" s="2">
         <v>1234567</v>
@@ -3383,8 +2431,8 @@
       <c r="A144" s="2">
         <v>143</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>144</v>
+      <c r="B144" s="3">
+        <v>20908017</v>
       </c>
       <c r="C144" s="2">
         <v>1234567</v>
@@ -3397,8 +2445,8 @@
       <c r="A145" s="2">
         <v>144</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>145</v>
+      <c r="B145" s="3">
+        <v>20908027</v>
       </c>
       <c r="C145" s="2">
         <v>1234567</v>
@@ -3411,8 +2459,8 @@
       <c r="A146" s="2">
         <v>145</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>146</v>
+      <c r="B146" s="3">
+        <v>20908040</v>
       </c>
       <c r="C146" s="2">
         <v>1234567</v>
@@ -3425,8 +2473,8 @@
       <c r="A147" s="2">
         <v>146</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>147</v>
+      <c r="B147" s="3">
+        <v>20811006</v>
       </c>
       <c r="C147" s="2">
         <v>1234567</v>
@@ -3439,8 +2487,8 @@
       <c r="A148" s="2">
         <v>147</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>148</v>
+      <c r="B148" s="3">
+        <v>20811010</v>
       </c>
       <c r="C148" s="2">
         <v>1234567</v>
@@ -3453,8 +2501,8 @@
       <c r="A149" s="2">
         <v>148</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>149</v>
+      <c r="B149" s="3">
+        <v>20811017</v>
       </c>
       <c r="C149" s="2">
         <v>1234567</v>
@@ -3467,8 +2515,8 @@
       <c r="A150" s="2">
         <v>149</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>150</v>
+      <c r="B150" s="3">
+        <v>20811021</v>
       </c>
       <c r="C150" s="2">
         <v>1234567</v>
@@ -3481,8 +2529,8 @@
       <c r="A151" s="2">
         <v>150</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>151</v>
+      <c r="B151" s="3">
+        <v>20811032</v>
       </c>
       <c r="C151" s="2">
         <v>1234567</v>
@@ -3495,8 +2543,8 @@
       <c r="A152" s="2">
         <v>151</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>152</v>
+      <c r="B152" s="3">
+        <v>20811037</v>
       </c>
       <c r="C152" s="2">
         <v>1234567</v>
@@ -3509,8 +2557,8 @@
       <c r="A153" s="2">
         <v>152</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>153</v>
+      <c r="B153" s="3">
+        <v>20811040</v>
       </c>
       <c r="C153" s="2">
         <v>1234567</v>
@@ -3523,8 +2571,8 @@
       <c r="A154" s="2">
         <v>153</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>154</v>
+      <c r="B154" s="3">
+        <v>20811044</v>
       </c>
       <c r="C154" s="2">
         <v>1234567</v>
@@ -3537,8 +2585,8 @@
       <c r="A155" s="2">
         <v>154</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>155</v>
+      <c r="B155" s="3">
+        <v>20811045</v>
       </c>
       <c r="C155" s="2">
         <v>1234567</v>
@@ -3551,8 +2599,8 @@
       <c r="A156" s="2">
         <v>155</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>156</v>
+      <c r="B156" s="3">
+        <v>20811048</v>
       </c>
       <c r="C156" s="2">
         <v>1234567</v>
@@ -3565,8 +2613,8 @@
       <c r="A157" s="2">
         <v>156</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>157</v>
+      <c r="B157" s="3">
+        <v>20811052</v>
       </c>
       <c r="C157" s="2">
         <v>1234567</v>
@@ -3579,8 +2627,8 @@
       <c r="A158" s="2">
         <v>157</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>158</v>
+      <c r="B158" s="3">
+        <v>20811055</v>
       </c>
       <c r="C158" s="2">
         <v>1234567</v>
@@ -3593,8 +2641,8 @@
       <c r="A159" s="2">
         <v>158</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>159</v>
+      <c r="B159" s="3">
+        <v>20811058</v>
       </c>
       <c r="C159" s="2">
         <v>1234567</v>
@@ -3607,8 +2655,8 @@
       <c r="A160" s="2">
         <v>159</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>160</v>
+      <c r="B160" s="3">
+        <v>20811059</v>
       </c>
       <c r="C160" s="2">
         <v>1234567</v>
@@ -3621,8 +2669,8 @@
       <c r="A161" s="2">
         <v>160</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>161</v>
+      <c r="B161" s="3">
+        <v>20812041</v>
       </c>
       <c r="C161" s="2">
         <v>1234567</v>
@@ -3635,8 +2683,8 @@
       <c r="A162" s="2">
         <v>161</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>162</v>
+      <c r="B162" s="3">
+        <v>20812078</v>
       </c>
       <c r="C162" s="2">
         <v>1234567</v>
@@ -3649,8 +2697,8 @@
       <c r="A163" s="2">
         <v>162</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>163</v>
+      <c r="B163" s="3">
+        <v>20812125</v>
       </c>
       <c r="C163" s="2">
         <v>1234567</v>
@@ -3663,8 +2711,8 @@
       <c r="A164" s="2">
         <v>163</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>164</v>
+      <c r="B164" s="3">
+        <v>20711004</v>
       </c>
       <c r="C164" s="2">
         <v>1234567</v>
@@ -3677,8 +2725,8 @@
       <c r="A165" s="2">
         <v>164</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>165</v>
+      <c r="B165" s="3">
+        <v>20711013</v>
       </c>
       <c r="C165" s="2">
         <v>1234567</v>
@@ -3691,8 +2739,8 @@
       <c r="A166" s="2">
         <v>165</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>166</v>
+      <c r="B166" s="3">
+        <v>20711016</v>
       </c>
       <c r="C166" s="2">
         <v>1234567</v>
@@ -3705,8 +2753,8 @@
       <c r="A167" s="2">
         <v>166</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>167</v>
+      <c r="B167" s="3">
+        <v>20711019</v>
       </c>
       <c r="C167" s="2">
         <v>1234567</v>
@@ -3719,8 +2767,8 @@
       <c r="A168" s="2">
         <v>167</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>168</v>
+      <c r="B168" s="3">
+        <v>20711026</v>
       </c>
       <c r="C168" s="2">
         <v>1234567</v>
@@ -3733,8 +2781,8 @@
       <c r="A169" s="2">
         <v>168</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>169</v>
+      <c r="B169" s="3">
+        <v>20711027</v>
       </c>
       <c r="C169" s="2">
         <v>1234567</v>
@@ -3747,8 +2795,8 @@
       <c r="A170" s="2">
         <v>169</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>170</v>
+      <c r="B170" s="3">
+        <v>20711033</v>
       </c>
       <c r="C170" s="2">
         <v>1234567</v>
@@ -3761,8 +2809,8 @@
       <c r="A171" s="2">
         <v>170</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>171</v>
+      <c r="B171" s="3">
+        <v>20711050</v>
       </c>
       <c r="C171" s="2">
         <v>1234567</v>
@@ -3775,8 +2823,8 @@
       <c r="A172" s="2">
         <v>171</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>172</v>
+      <c r="B172" s="3">
+        <v>20711055</v>
       </c>
       <c r="C172" s="2">
         <v>1234567</v>
@@ -3789,8 +2837,8 @@
       <c r="A173" s="2">
         <v>172</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>173</v>
+      <c r="B173" s="3">
+        <v>20711057</v>
       </c>
       <c r="C173" s="2">
         <v>1234567</v>
@@ -3803,8 +2851,8 @@
       <c r="A174" s="2">
         <v>173</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>174</v>
+      <c r="B174" s="3">
+        <v>20711060</v>
       </c>
       <c r="C174" s="2">
         <v>1234567</v>
@@ -3817,8 +2865,8 @@
       <c r="A175" s="2">
         <v>174</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>175</v>
+      <c r="B175" s="3">
+        <v>20712067</v>
       </c>
       <c r="C175" s="2">
         <v>1234567</v>
@@ -3831,8 +2879,8 @@
       <c r="A176" s="2">
         <v>175</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>176</v>
+      <c r="B176" s="3">
+        <v>20712073</v>
       </c>
       <c r="C176" s="2">
         <v>1234567</v>
@@ -3845,8 +2893,8 @@
       <c r="A177" s="2">
         <v>176</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>177</v>
+      <c r="B177" s="3">
+        <v>20712086</v>
       </c>
       <c r="C177" s="2">
         <v>1234567</v>
@@ -3859,8 +2907,8 @@
       <c r="A178" s="2">
         <v>177</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>178</v>
+      <c r="B178" s="3">
+        <v>20712087</v>
       </c>
       <c r="C178" s="2">
         <v>1234567</v>
@@ -3873,8 +2921,8 @@
       <c r="A179" s="2">
         <v>178</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>179</v>
+      <c r="B179" s="3">
+        <v>20712093</v>
       </c>
       <c r="C179" s="2">
         <v>1234567</v>
@@ -3887,8 +2935,8 @@
       <c r="A180" s="2">
         <v>179</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>180</v>
+      <c r="B180" s="3">
+        <v>20712170</v>
       </c>
       <c r="C180" s="2">
         <v>1234567</v>
@@ -3901,8 +2949,8 @@
       <c r="A181" s="2">
         <v>180</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>181</v>
+      <c r="B181" s="3">
+        <v>20611005</v>
       </c>
       <c r="C181" s="2">
         <v>1234567</v>
@@ -3915,8 +2963,8 @@
       <c r="A182" s="2">
         <v>181</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>182</v>
+      <c r="B182" s="3">
+        <v>20611006</v>
       </c>
       <c r="C182" s="2">
         <v>1234567</v>
@@ -3929,8 +2977,8 @@
       <c r="A183" s="2">
         <v>182</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>183</v>
+      <c r="B183" s="3">
+        <v>20611007</v>
       </c>
       <c r="C183" s="2">
         <v>1234567</v>
@@ -3943,8 +2991,8 @@
       <c r="A184" s="2">
         <v>183</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>184</v>
+      <c r="B184" s="3">
+        <v>20611008</v>
       </c>
       <c r="C184" s="2">
         <v>1234567</v>
@@ -3957,8 +3005,8 @@
       <c r="A185" s="2">
         <v>184</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>185</v>
+      <c r="B185" s="3">
+        <v>20611013</v>
       </c>
       <c r="C185" s="2">
         <v>1234567</v>
@@ -3971,8 +3019,8 @@
       <c r="A186" s="2">
         <v>185</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>186</v>
+      <c r="B186" s="3">
+        <v>20611015</v>
       </c>
       <c r="C186" s="2">
         <v>1234567</v>
@@ -3985,8 +3033,8 @@
       <c r="A187" s="2">
         <v>186</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>187</v>
+      <c r="B187" s="3">
+        <v>20611018</v>
       </c>
       <c r="C187" s="2">
         <v>1234567</v>
@@ -3999,8 +3047,8 @@
       <c r="A188" s="2">
         <v>187</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>188</v>
+      <c r="B188" s="3">
+        <v>20611021</v>
       </c>
       <c r="C188" s="2">
         <v>1234567</v>
@@ -4013,8 +3061,8 @@
       <c r="A189" s="2">
         <v>188</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>189</v>
+      <c r="B189" s="3">
+        <v>20611024</v>
       </c>
       <c r="C189" s="2">
         <v>1234567</v>
@@ -4027,8 +3075,8 @@
       <c r="A190" s="2">
         <v>189</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>190</v>
+      <c r="B190" s="3">
+        <v>20611033</v>
       </c>
       <c r="C190" s="2">
         <v>1234567</v>
@@ -4041,8 +3089,8 @@
       <c r="A191" s="2">
         <v>190</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>191</v>
+      <c r="B191" s="3">
+        <v>20611036</v>
       </c>
       <c r="C191" s="2">
         <v>1234567</v>
@@ -4055,8 +3103,8 @@
       <c r="A192" s="2">
         <v>191</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>192</v>
+      <c r="B192" s="3">
+        <v>20611041</v>
       </c>
       <c r="C192" s="2">
         <v>1234567</v>
@@ -4069,8 +3117,8 @@
       <c r="A193" s="2">
         <v>192</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>193</v>
+      <c r="B193" s="3">
+        <v>20611045</v>
       </c>
       <c r="C193" s="2">
         <v>1234567</v>
@@ -4083,8 +3131,8 @@
       <c r="A194" s="2">
         <v>193</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>194</v>
+      <c r="B194" s="3">
+        <v>20611052</v>
       </c>
       <c r="C194" s="2">
         <v>1234567</v>
@@ -4097,8 +3145,8 @@
       <c r="A195" s="2">
         <v>194</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>195</v>
+      <c r="B195" s="3">
+        <v>20611061</v>
       </c>
       <c r="C195" s="2">
         <v>1234567</v>
@@ -4111,8 +3159,8 @@
       <c r="A196" s="2">
         <v>195</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>196</v>
+      <c r="B196" s="3">
+        <v>20611063</v>
       </c>
       <c r="C196" s="2">
         <v>1234567</v>
@@ -4125,8 +3173,8 @@
       <c r="A197" s="2">
         <v>196</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>197</v>
+      <c r="B197" s="3">
+        <v>20611064</v>
       </c>
       <c r="C197" s="2">
         <v>1234567</v>
@@ -4139,8 +3187,8 @@
       <c r="A198" s="2">
         <v>197</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>198</v>
+      <c r="B198" s="3">
+        <v>20611066</v>
       </c>
       <c r="C198" s="2">
         <v>1234567</v>
@@ -4153,8 +3201,8 @@
       <c r="A199" s="2">
         <v>198</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>199</v>
+      <c r="B199" s="3">
+        <v>20611075</v>
       </c>
       <c r="C199" s="2">
         <v>1234567</v>
@@ -4167,8 +3215,8 @@
       <c r="A200" s="2">
         <v>199</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>200</v>
+      <c r="B200" s="3">
+        <v>20611077</v>
       </c>
       <c r="C200" s="2">
         <v>1234567</v>
@@ -4181,8 +3229,8 @@
       <c r="A201" s="2">
         <v>200</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>201</v>
+      <c r="B201" s="3">
+        <v>20611080</v>
       </c>
       <c r="C201" s="2">
         <v>1234567</v>
@@ -4195,8 +3243,8 @@
       <c r="A202" s="2">
         <v>201</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>202</v>
+      <c r="B202" s="3">
+        <v>20611097</v>
       </c>
       <c r="C202" s="2">
         <v>1234567</v>
@@ -4209,8 +3257,8 @@
       <c r="A203" s="2">
         <v>202</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>203</v>
+      <c r="B203" s="3">
+        <v>20611098</v>
       </c>
       <c r="C203" s="2">
         <v>1234567</v>
@@ -4223,8 +3271,8 @@
       <c r="A204" s="2">
         <v>203</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>204</v>
+      <c r="B204" s="3">
+        <v>20612173</v>
       </c>
       <c r="C204" s="2">
         <v>1234567</v>
@@ -4237,8 +3285,8 @@
       <c r="A205" s="2">
         <v>204</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>205</v>
+      <c r="B205" s="3">
+        <v>20501674</v>
       </c>
       <c r="C205" s="2">
         <v>1234567</v>
@@ -4251,8 +3299,8 @@
       <c r="A206" s="2">
         <v>205</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>206</v>
+      <c r="B206" s="3">
+        <v>20501680</v>
       </c>
       <c r="C206" s="2">
         <v>1234567</v>
@@ -4265,8 +3313,8 @@
       <c r="A207" s="2">
         <v>206</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>207</v>
+      <c r="B207" s="3">
+        <v>20501710</v>
       </c>
       <c r="C207" s="2">
         <v>1234567</v>
@@ -4279,8 +3327,8 @@
       <c r="A208" s="2">
         <v>207</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>208</v>
+      <c r="B208" s="3">
+        <v>20501729</v>
       </c>
       <c r="C208" s="2">
         <v>1234567</v>
@@ -4293,8 +3341,8 @@
       <c r="A209" s="2">
         <v>208</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>209</v>
+      <c r="B209" s="3">
+        <v>20501731</v>
       </c>
       <c r="C209" s="2">
         <v>1234567</v>
@@ -4307,8 +3355,8 @@
       <c r="A210" s="2">
         <v>209</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>210</v>
+      <c r="B210" s="3">
+        <v>20501734</v>
       </c>
       <c r="C210" s="2">
         <v>1234567</v>
@@ -4321,8 +3369,8 @@
       <c r="A211" s="2">
         <v>210</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>211</v>
+      <c r="B211" s="3">
+        <v>20511030</v>
       </c>
       <c r="C211" s="2">
         <v>1234567</v>
@@ -4335,8 +3383,8 @@
       <c r="A212" s="2">
         <v>211</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>212</v>
+      <c r="B212" s="3">
+        <v>20511099</v>
       </c>
       <c r="C212" s="2">
         <v>1234567</v>
@@ -4349,8 +3397,8 @@
       <c r="A213" s="2">
         <v>212</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>213</v>
+      <c r="B213" s="3">
+        <v>20501658</v>
       </c>
       <c r="C213" s="2">
         <v>1234567</v>
@@ -4363,8 +3411,8 @@
       <c r="A214" s="2">
         <v>213</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>214</v>
+      <c r="B214" s="3">
+        <v>20501666</v>
       </c>
       <c r="C214" s="2">
         <v>1234567</v>
@@ -4377,8 +3425,8 @@
       <c r="A215" s="2">
         <v>214</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>215</v>
+      <c r="B215" s="3">
+        <v>20501753</v>
       </c>
       <c r="C215" s="2">
         <v>1234567</v>
@@ -4391,8 +3439,8 @@
       <c r="A216" s="2">
         <v>215</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>216</v>
+      <c r="B216" s="3">
+        <v>20511064</v>
       </c>
       <c r="C216" s="2">
         <v>1234567</v>
@@ -4405,8 +3453,8 @@
       <c r="A217" s="2">
         <v>216</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>217</v>
+      <c r="B217" s="3">
+        <v>20411010</v>
       </c>
       <c r="C217" s="2">
         <v>1234567</v>
@@ -4419,8 +3467,8 @@
       <c r="A218" s="2">
         <v>217</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>218</v>
+      <c r="B218" s="3">
+        <v>20411030</v>
       </c>
       <c r="C218" s="2">
         <v>1234567</v>
@@ -4433,8 +3481,8 @@
       <c r="A219" s="2">
         <v>218</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>219</v>
+      <c r="B219" s="3">
+        <v>20411039</v>
       </c>
       <c r="C219" s="2">
         <v>1234567</v>
@@ -4447,8 +3495,8 @@
       <c r="A220" s="2">
         <v>219</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>220</v>
+      <c r="B220" s="3">
+        <v>20411081</v>
       </c>
       <c r="C220" s="2">
         <v>1234567</v>
@@ -4461,8 +3509,8 @@
       <c r="A221" s="2">
         <v>220</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>221</v>
+      <c r="B221" s="3">
+        <v>20411091</v>
       </c>
       <c r="C221" s="2">
         <v>1234567</v>
@@ -4475,8 +3523,8 @@
       <c r="A222" s="2">
         <v>221</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>222</v>
+      <c r="B222" s="3">
+        <v>20411103</v>
       </c>
       <c r="C222" s="2">
         <v>1234567</v>
@@ -4489,8 +3537,8 @@
       <c r="A223" s="2">
         <v>222</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>223</v>
+      <c r="B223" s="3">
+        <v>6120103556</v>
       </c>
       <c r="C223" s="2">
         <v>7654321</v>
@@ -4503,8 +3551,8 @@
       <c r="A224" s="2">
         <v>223</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>224</v>
+      <c r="B224" s="3">
+        <v>6120101029</v>
       </c>
       <c r="C224" s="2">
         <v>7654321</v>
@@ -4517,8 +3565,8 @@
       <c r="A225" s="2">
         <v>224</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>225</v>
+      <c r="B225" s="3">
+        <v>6120100987</v>
       </c>
       <c r="C225" s="2">
         <v>7654321</v>
@@ -4531,8 +3579,8 @@
       <c r="A226" s="2">
         <v>225</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>226</v>
+      <c r="B226" s="3">
+        <v>6120103571</v>
       </c>
       <c r="C226" s="2">
         <v>7654321</v>
@@ -4545,8 +3593,8 @@
       <c r="A227" s="2">
         <v>226</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>227</v>
+      <c r="B227" s="3">
+        <v>6120110083</v>
       </c>
       <c r="C227" s="2">
         <v>7654321</v>
@@ -4559,8 +3607,8 @@
       <c r="A228" s="2">
         <v>227</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>228</v>
+      <c r="B228" s="3">
+        <v>6120104144</v>
       </c>
       <c r="C228" s="2">
         <v>7654321</v>
@@ -4573,8 +3621,8 @@
       <c r="A229" s="2">
         <v>228</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>229</v>
+      <c r="B229" s="3">
+        <v>6120101809</v>
       </c>
       <c r="C229" s="2">
         <v>7654321</v>
@@ -4587,8 +3635,8 @@
       <c r="A230" s="2">
         <v>229</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>230</v>
+      <c r="B230" s="3">
+        <v>6120103589</v>
       </c>
       <c r="C230" s="2">
         <v>7654321</v>
@@ -4601,8 +3649,8 @@
       <c r="A231" s="2">
         <v>230</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>231</v>
+      <c r="B231" s="3">
+        <v>6120103557</v>
       </c>
       <c r="C231" s="2">
         <v>7654321</v>
